--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9AA57-4DCF-4F68-957E-51421C478ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F9517E-8C8C-4A6B-B624-D0C6262DE08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>avg</t>
-  </si>
-  <si>
     <t>samer</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>diana</t>
+  </si>
+  <si>
+    <t>المعدل</t>
   </si>
 </sst>
 </file>
@@ -95,6 +95,862 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ورقة1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>المعدل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ورقة1!$A$2:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>samer</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>fahed</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>diana</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ورقة1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A0E-4096-AF39-376FFB43894C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ar-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4E5159-0D6C-4930-AE44-A25BD7C8BA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,7 +1219,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -376,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -384,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -395,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>300</v>
@@ -406,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>400</v>
@@ -414,5 +1270,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F9517E-8C8C-4A6B-B624-D0C6262DE08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E99FF99-CC04-4F3A-B06F-28BE2DAB1C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>المعدل</t>
+  </si>
+  <si>
+    <t>gamal</t>
   </si>
 </sst>
 </file>
@@ -174,6 +177,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D34C-43B6-AAA7-A2CB549A8154}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -189,6 +197,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D34C-43B6-AAA7-A2CB549A8154}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -204,12 +217,32 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D34C-43B6-AAA7-A2CB549A8154}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ورقة1!$A$2:$B$4</c:f>
+              <c:f>ورقة1!$A$2:$B$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>samer</c:v>
@@ -219,6 +252,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>diana</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>gamal</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -231,16 +267,19 @@
                   <c:pt idx="2">
                     <c:v>3</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ورقة1!$C$2:$C$4</c:f>
+              <c:f>ورقة1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -249,6 +288,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,16 +958,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>560070</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1216,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1268,6 +1310,17 @@
         <v>400</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E99FF99-CC04-4F3A-B06F-28BE2DAB1C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039ABF27-805F-44E1-97FD-ED11E339BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,6 +237,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6FA0-46C1-8460-34FAC48F9E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1258,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1321,6 +1326,16 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
